--- a/Examples/SingleMachineInfiniteBus/SingleSGInfiniteBus.xlsx
+++ b/Examples/SingleMachineInfiniteBus/SingleSGInfiniteBus.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\SingleMachineInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70933759-3B52-44D5-B830-D0D386554FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD4303-10DA-43C3-89C2-7984384F6E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
+    <sheet name="Bus" sheetId="1" r:id="rId1"/>
     <sheet name="Device" sheetId="3" r:id="rId2"/>
-    <sheet name="Basic" sheetId="4" r:id="rId3"/>
+    <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
-    <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
-    <sheet name="Advanced Setting" sheetId="6" r:id="rId6"/>
+    <sheet name="Basic" sheetId="4" r:id="rId5"/>
+    <sheet name="Advance" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,26 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Enable, 2-Disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Initial step, 2-Every step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-With virtual damping resistor, 2-Without virtual damping resistor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Yes, 2-No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Base Frequency (Hz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,6 +233,18 @@
   </si>
   <si>
     <t>Power Flow Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_Participation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,57 +603,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -692,8 +690,14 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -722,6 +726,12 @@
         <v>-1</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
@@ -736,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -820,62 +830,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
-    <col min="3" max="3" width="14.9296875" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -961,79 +988,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="3" max="3" width="14.9296875" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E11" s="1"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1055,121 +1065,102 @@
     <col min="1" max="1" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>43</v>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
